--- a/Team-Data/2007-08/1-26-2007-08.xlsx
+++ b/Team-Data/2007-08/1-26-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -759,7 +826,7 @@
         <v>3</v>
       </c>
       <c r="AI2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ2" t="n">
         <v>26</v>
@@ -798,7 +865,7 @@
         <v>18</v>
       </c>
       <c r="AV2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW2" t="n">
         <v>7</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-26-2007-08</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
         <v>25</v>
@@ -974,7 +1041,7 @@
         <v>8</v>
       </c>
       <c r="AT3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -992,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="AZ3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA3" t="n">
         <v>7</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-26-2007-08</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" t="n">
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" t="n">
-        <v>0.386</v>
+        <v>0.395</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1048,55 +1115,55 @@
         <v>35.6</v>
       </c>
       <c r="J4" t="n">
-        <v>79.3</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L4" t="n">
         <v>6.2</v>
       </c>
       <c r="M4" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.36</v>
+        <v>0.358</v>
       </c>
       <c r="O4" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P4" t="n">
         <v>25.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.706</v>
+        <v>0.705</v>
       </c>
       <c r="R4" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S4" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T4" t="n">
         <v>40.4</v>
       </c>
       <c r="U4" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V4" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W4" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X4" t="n">
         <v>5</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AA4" t="n">
         <v>21.1</v>
@@ -1105,10 +1172,10 @@
         <v>95.09999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.7</v>
+        <v>-3.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1129,7 +1196,7 @@
         <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
         <v>16</v>
@@ -1144,34 +1211,34 @@
         <v>21</v>
       </c>
       <c r="AP4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT4" t="n">
         <v>26</v>
       </c>
       <c r="AU4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AV4" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AW4" t="n">
         <v>14</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ4" t="n">
         <v>25</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-26-2007-08</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1320,7 +1387,7 @@
         <v>23</v>
       </c>
       <c r="AN5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO5" t="n">
         <v>22</v>
@@ -1347,13 +1414,13 @@
         <v>10</v>
       </c>
       <c r="AW5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ5" t="n">
         <v>14</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-26-2007-08</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-1</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
         <v>15</v>
@@ -1505,10 +1572,10 @@
         <v>17</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
         <v>23</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-26-2007-08</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>4.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
         <v>5</v>
@@ -1666,7 +1733,7 @@
         <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
         <v>11</v>
@@ -1699,10 +1766,10 @@
         <v>20</v>
       </c>
       <c r="AS7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU7" t="n">
         <v>22</v>
@@ -1714,7 +1781,7 @@
         <v>28</v>
       </c>
       <c r="AX7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY7" t="n">
         <v>5</v>
@@ -1723,10 +1790,10 @@
         <v>21</v>
       </c>
       <c r="BA7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BB7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-26-2007-08</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1848,7 +1915,7 @@
         <v>8</v>
       </c>
       <c r="AH8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-26-2007-08</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>7.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2036,10 +2103,10 @@
         <v>15</v>
       </c>
       <c r="AJ9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL9" t="n">
         <v>19</v>
@@ -2063,7 +2130,7 @@
         <v>17</v>
       </c>
       <c r="AS9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT9" t="n">
         <v>25</v>
@@ -2078,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="AX9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY9" t="n">
         <v>1</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-26-2007-08</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>1.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
         <v>9</v>
@@ -2236,7 +2303,7 @@
         <v>12</v>
       </c>
       <c r="AP10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-26-2007-08</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>2.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
@@ -2394,10 +2461,10 @@
         <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ11" t="n">
         <v>12</v>
@@ -2412,7 +2479,7 @@
         <v>8</v>
       </c>
       <c r="AN11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO11" t="n">
         <v>27</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-26-2007-08</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" t="n">
         <v>19</v>
       </c>
       <c r="F12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" t="n">
-        <v>0.422</v>
+        <v>0.432</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J12" t="n">
-        <v>86.09999999999999</v>
+        <v>86.2</v>
       </c>
       <c r="K12" t="n">
         <v>0.443</v>
@@ -2513,70 +2580,70 @@
         <v>8.6</v>
       </c>
       <c r="M12" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.36</v>
+        <v>0.362</v>
       </c>
       <c r="O12" t="n">
         <v>18.3</v>
       </c>
       <c r="P12" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.762</v>
+        <v>0.759</v>
       </c>
       <c r="R12" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S12" t="n">
         <v>33.1</v>
       </c>
       <c r="T12" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="U12" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="V12" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="W12" t="n">
         <v>7.8</v>
       </c>
       <c r="X12" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="AC12" t="n">
         <v>-1.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>17</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI12" t="n">
         <v>6</v>
@@ -2597,7 +2664,7 @@
         <v>12</v>
       </c>
       <c r="AO12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
         <v>20</v>
@@ -2606,7 +2673,7 @@
         <v>13</v>
       </c>
       <c r="AR12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS12" t="n">
         <v>4</v>
@@ -2618,22 +2685,22 @@
         <v>6</v>
       </c>
       <c r="AV12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW12" t="n">
         <v>11</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-26-2007-08</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
@@ -2668,64 +2735,64 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" t="n">
-        <v>0.325</v>
+        <v>0.333</v>
       </c>
       <c r="H13" t="n">
-        <v>48.3</v>
+        <v>48.1</v>
       </c>
       <c r="I13" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="J13" t="n">
         <v>79.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.435</v>
+        <v>0.433</v>
       </c>
       <c r="L13" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="M13" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.335</v>
+        <v>0.331</v>
       </c>
       <c r="O13" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="P13" t="n">
-        <v>26.8</v>
+        <v>26.6</v>
       </c>
       <c r="Q13" t="n">
         <v>0.779</v>
       </c>
       <c r="R13" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S13" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="T13" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U13" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V13" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W13" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X13" t="n">
         <v>5.4</v>
@@ -2734,19 +2801,19 @@
         <v>5.2</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.9</v>
+        <v>21.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.40000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="AC13" t="n">
         <v>-4.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE13" t="n">
         <v>26</v>
@@ -2755,28 +2822,28 @@
         <v>22</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM13" t="n">
         <v>26</v>
       </c>
       <c r="AN13" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AO13" t="n">
         <v>9</v>
@@ -2803,7 +2870,7 @@
         <v>11</v>
       </c>
       <c r="AW13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AX13" t="n">
         <v>5</v>
@@ -2812,13 +2879,13 @@
         <v>20</v>
       </c>
       <c r="AZ13" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BA13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB13" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BC13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-26-2007-08</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
@@ -2928,13 +2995,13 @@
         <v>5.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE14" t="n">
         <v>7</v>
       </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG14" t="n">
         <v>7</v>
@@ -2970,7 +3037,7 @@
         <v>15</v>
       </c>
       <c r="AR14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -2988,13 +3055,13 @@
         <v>5</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA14" t="n">
         <v>6</v>
@@ -3003,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-26-2007-08</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
@@ -3032,61 +3099,61 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" t="n">
         <v>31</v>
       </c>
       <c r="G15" t="n">
-        <v>0.295</v>
+        <v>0.279</v>
       </c>
       <c r="H15" t="n">
-        <v>48.5</v>
+        <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J15" t="n">
         <v>80.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L15" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M15" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="N15" t="n">
         <v>0.375</v>
       </c>
       <c r="O15" t="n">
-        <v>18.4</v>
+        <v>18.1</v>
       </c>
       <c r="P15" t="n">
-        <v>24.6</v>
+        <v>24.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.748</v>
+        <v>0.749</v>
       </c>
       <c r="R15" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S15" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T15" t="n">
         <v>41.6</v>
       </c>
       <c r="U15" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V15" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="W15" t="n">
         <v>5.8</v>
@@ -3098,22 +3165,22 @@
         <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.4</v>
+        <v>22</v>
       </c>
       <c r="AB15" t="n">
-        <v>101.4</v>
+        <v>100.9</v>
       </c>
       <c r="AC15" t="n">
-        <v>-4.1</v>
+        <v>-4.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF15" t="n">
         <v>27</v>
@@ -3122,10 +3189,10 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AI15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ15" t="n">
         <v>15</v>
@@ -3143,7 +3210,7 @@
         <v>6</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
         <v>18</v>
@@ -3155,7 +3222,7 @@
         <v>23</v>
       </c>
       <c r="AS15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AT15" t="n">
         <v>18</v>
@@ -3170,19 +3237,19 @@
         <v>29</v>
       </c>
       <c r="AX15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA15" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB15" t="n">
         <v>9</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>8</v>
       </c>
       <c r="BC15" t="n">
         <v>23</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-26-2007-08</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
@@ -3214,25 +3281,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
         <v>34</v>
       </c>
       <c r="G16" t="n">
-        <v>0.209</v>
+        <v>0.19</v>
       </c>
       <c r="H16" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="J16" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K16" t="n">
         <v>0.458</v>
@@ -3244,67 +3311,67 @@
         <v>13.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.339</v>
+        <v>0.343</v>
       </c>
       <c r="O16" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P16" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.706</v>
+        <v>0.703</v>
       </c>
       <c r="R16" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="S16" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="T16" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="U16" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="V16" t="n">
         <v>15</v>
       </c>
       <c r="W16" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X16" t="n">
         <v>4.7</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA16" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.40000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>-6.3</v>
+        <v>-6.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF16" t="n">
         <v>28</v>
       </c>
       <c r="AG16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI16" t="n">
         <v>26</v>
@@ -3313,7 +3380,7 @@
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL16" t="n">
         <v>25</v>
@@ -3322,22 +3389,22 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>18</v>
       </c>
       <c r="AP16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
       </c>
       <c r="AS16" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AT16" t="n">
         <v>30</v>
@@ -3355,7 +3422,7 @@
         <v>17</v>
       </c>
       <c r="AY16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ16" t="n">
         <v>11</v>
@@ -3364,10 +3431,10 @@
         <v>12</v>
       </c>
       <c r="BB16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-26-2007-08</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
@@ -3474,16 +3541,16 @@
         <v>-6.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH17" t="n">
         <v>14</v>
@@ -3492,7 +3559,7 @@
         <v>17</v>
       </c>
       <c r="AJ17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK17" t="n">
         <v>17</v>
@@ -3507,7 +3574,7 @@
         <v>22</v>
       </c>
       <c r="AO17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP17" t="n">
         <v>25</v>
@@ -3540,7 +3607,7 @@
         <v>25</v>
       </c>
       <c r="AZ17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA17" t="n">
         <v>20</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-26-2007-08</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3674,7 +3741,7 @@
         <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK18" t="n">
         <v>24</v>
@@ -3686,7 +3753,7 @@
         <v>22</v>
       </c>
       <c r="AN18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3701,7 +3768,7 @@
         <v>4</v>
       </c>
       <c r="AS18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT18" t="n">
         <v>16</v>
@@ -3728,7 +3795,7 @@
         <v>29</v>
       </c>
       <c r="BB18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-26-2007-08</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-6.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
@@ -3859,7 +3926,7 @@
         <v>28</v>
       </c>
       <c r="AK19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL19" t="n">
         <v>20</v>
@@ -3868,7 +3935,7 @@
         <v>17</v>
       </c>
       <c r="AN19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
@@ -3886,7 +3953,7 @@
         <v>18</v>
       </c>
       <c r="AT19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU19" t="n">
         <v>4</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-26-2007-08</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" t="n">
         <v>12</v>
       </c>
       <c r="G20" t="n">
-        <v>0.721</v>
+        <v>0.714</v>
       </c>
       <c r="H20" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J20" t="n">
         <v>83.2</v>
       </c>
       <c r="K20" t="n">
-        <v>0.457</v>
+        <v>0.455</v>
       </c>
       <c r="L20" t="n">
         <v>7.7</v>
@@ -3975,16 +4042,16 @@
         <v>0.378</v>
       </c>
       <c r="O20" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="P20" t="n">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="Q20" t="n">
         <v>0.78</v>
       </c>
       <c r="R20" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S20" t="n">
         <v>31.2</v>
@@ -3993,13 +4060,13 @@
         <v>42.8</v>
       </c>
       <c r="U20" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V20" t="n">
         <v>12.3</v>
       </c>
       <c r="W20" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X20" t="n">
         <v>4</v>
@@ -4008,22 +4075,22 @@
         <v>4.4</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="AB20" t="n">
         <v>98.90000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF20" t="n">
         <v>2</v>
@@ -4032,16 +4099,16 @@
         <v>2</v>
       </c>
       <c r="AH20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI20" t="n">
         <v>7</v>
       </c>
       <c r="AJ20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
         <v>7</v>
@@ -4050,7 +4117,7 @@
         <v>7</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO20" t="n">
         <v>29</v>
@@ -4062,25 +4129,25 @@
         <v>6</v>
       </c>
       <c r="AR20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT20" t="n">
         <v>8</v>
       </c>
       <c r="AU20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY20" t="n">
         <v>9</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-26-2007-08</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-6</v>
       </c>
       <c r="AD21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
         <v>25</v>
@@ -4214,7 +4281,7 @@
         <v>25</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI21" t="n">
         <v>27</v>
@@ -4232,7 +4299,7 @@
         <v>18</v>
       </c>
       <c r="AN21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
         <v>14</v>
@@ -4256,7 +4323,7 @@
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW21" t="n">
         <v>27</v>
@@ -4265,7 +4332,7 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ21" t="n">
         <v>15</v>
@@ -4274,7 +4341,7 @@
         <v>15</v>
       </c>
       <c r="BB21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC21" t="n">
         <v>25</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-26-2007-08</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
@@ -4396,7 +4463,7 @@
         <v>9</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI22" t="n">
         <v>14</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-26-2007-08</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" t="n">
         <v>28</v>
       </c>
       <c r="G23" t="n">
-        <v>0.378</v>
+        <v>0.364</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4506,40 +4573,40 @@
         <v>35.8</v>
       </c>
       <c r="J23" t="n">
-        <v>80.3</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L23" t="n">
         <v>3.8</v>
       </c>
       <c r="M23" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="N23" t="n">
-        <v>0.319</v>
+        <v>0.318</v>
       </c>
       <c r="O23" t="n">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="P23" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="Q23" t="n">
         <v>0.71</v>
       </c>
       <c r="R23" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="S23" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="T23" t="n">
-        <v>42.2</v>
+        <v>42</v>
       </c>
       <c r="U23" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V23" t="n">
         <v>15.6</v>
@@ -4548,7 +4615,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="X23" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y23" t="n">
         <v>5</v>
@@ -4557,19 +4624,19 @@
         <v>20.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>93.40000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>-3</v>
+        <v>-3.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AF23" t="n">
         <v>25</v>
@@ -4578,13 +4645,13 @@
         <v>24</v>
       </c>
       <c r="AH23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI23" t="n">
         <v>23</v>
       </c>
-      <c r="AI23" t="n">
-        <v>22</v>
-      </c>
       <c r="AJ23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK23" t="n">
         <v>20</v>
@@ -4602,7 +4669,7 @@
         <v>20</v>
       </c>
       <c r="AP23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AQ23" t="n">
         <v>28</v>
@@ -4614,7 +4681,7 @@
         <v>29</v>
       </c>
       <c r="AT23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU23" t="n">
         <v>27</v>
@@ -4626,10 +4693,10 @@
         <v>6</v>
       </c>
       <c r="AX23" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AY23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ23" t="n">
         <v>8</v>
@@ -4638,7 +4705,7 @@
         <v>19</v>
       </c>
       <c r="BB23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC23" t="n">
         <v>21</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-26-2007-08</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>5.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
         <v>2</v>
@@ -4811,19 +4878,19 @@
         <v>2</v>
       </c>
       <c r="AY24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB24" t="n">
         <v>1</v>
       </c>
       <c r="BC24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-26-2007-08</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>0.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
         <v>11</v>
@@ -4945,13 +5012,13 @@
         <v>2</v>
       </c>
       <c r="AI25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ25" t="n">
         <v>24</v>
       </c>
       <c r="AK25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL25" t="n">
         <v>11</v>
@@ -4963,7 +5030,7 @@
         <v>2</v>
       </c>
       <c r="AO25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP25" t="n">
         <v>22</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-26-2007-08</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -5121,10 +5188,10 @@
         <v>18</v>
       </c>
       <c r="AG26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH26" t="n">
         <v>18</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>19</v>
       </c>
       <c r="AI26" t="n">
         <v>21</v>
@@ -5154,10 +5221,10 @@
         <v>4</v>
       </c>
       <c r="AR26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS26" t="n">
         <v>24</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>25</v>
       </c>
       <c r="AT26" t="n">
         <v>29</v>
@@ -5166,7 +5233,7 @@
         <v>29</v>
       </c>
       <c r="AV26" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW26" t="n">
         <v>8</v>
@@ -5175,7 +5242,7 @@
         <v>29</v>
       </c>
       <c r="AY26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ26" t="n">
         <v>24</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-26-2007-08</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
@@ -5216,61 +5283,61 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" t="n">
         <v>28</v>
       </c>
       <c r="F27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G27" t="n">
-        <v>0.667</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H27" t="n">
         <v>48.1</v>
       </c>
       <c r="I27" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J27" t="n">
         <v>78.8</v>
       </c>
       <c r="K27" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L27" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="M27" t="n">
         <v>20.7</v>
       </c>
       <c r="N27" t="n">
-        <v>0.377</v>
+        <v>0.384</v>
       </c>
       <c r="O27" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="P27" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="Q27" t="n">
         <v>0.749</v>
       </c>
       <c r="R27" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S27" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
       </c>
       <c r="T27" t="n">
-        <v>41.2</v>
+        <v>41.4</v>
       </c>
       <c r="U27" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V27" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="W27" t="n">
         <v>6.7</v>
@@ -5282,40 +5349,40 @@
         <v>4.7</v>
       </c>
       <c r="Z27" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AE27" t="n">
         <v>6</v>
       </c>
       <c r="AF27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AG27" t="n">
         <v>6</v>
       </c>
       <c r="AH27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ27" t="n">
         <v>22</v>
       </c>
       <c r="AK27" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL27" t="n">
         <v>6</v>
@@ -5324,25 +5391,25 @@
         <v>6</v>
       </c>
       <c r="AN27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP27" t="n">
         <v>26</v>
       </c>
       <c r="AQ27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR27" t="n">
         <v>22</v>
       </c>
       <c r="AS27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU27" t="n">
         <v>11</v>
@@ -5351,7 +5418,7 @@
         <v>4</v>
       </c>
       <c r="AW27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX27" t="n">
         <v>26</v>
@@ -5363,13 +5430,13 @@
         <v>1</v>
       </c>
       <c r="BA27" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BB27" t="n">
         <v>17</v>
       </c>
       <c r="BC27" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-26-2007-08</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE28" t="n">
         <v>28</v>
@@ -5488,10 +5555,10 @@
         <v>28</v>
       </c>
       <c r="AH28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ28" t="n">
         <v>3</v>
@@ -5500,13 +5567,13 @@
         <v>27</v>
       </c>
       <c r="AL28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM28" t="n">
         <v>27</v>
       </c>
       <c r="AN28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO28" t="n">
         <v>23</v>
@@ -5545,7 +5612,7 @@
         <v>12</v>
       </c>
       <c r="BA28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB28" t="n">
         <v>18</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-26-2007-08</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>2.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
@@ -5670,7 +5737,7 @@
         <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-26-2007-08</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>5.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE30" t="n">
         <v>11</v>
@@ -5879,7 +5946,7 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR30" t="n">
         <v>13</v>
@@ -5894,7 +5961,7 @@
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW30" t="n">
         <v>3</v>
@@ -5915,7 +5982,7 @@
         <v>5</v>
       </c>
       <c r="BC30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-26-2007-08</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>2.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -6034,7 +6101,7 @@
         <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI31" t="n">
         <v>13</v>
@@ -6043,7 +6110,7 @@
         <v>11</v>
       </c>
       <c r="AK31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL31" t="n">
         <v>13</v>
@@ -6082,7 +6149,7 @@
         <v>10</v>
       </c>
       <c r="AX31" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-26-2007-08</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
